--- a/xls/square_high_un_16_tri3_21.xlsx
+++ b/xls/square_high_un_16_tri3_21.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-2.243043414387779</v>
+        <v>-0.40009656389115755</v>
       </c>
       <c r="J21">
-        <v>-1.8450830007290402</v>
+        <v>-0.35044861115391845</v>
       </c>
       <c r="K21">
-        <v>0.4447136681079701</v>
+        <v>2.221678915006784</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-1.991477028786236</v>
+        <v>-8.270223266184428e-5</v>
       </c>
       <c r="J22">
-        <v>-1.5930959654761707</v>
+        <v>-0.00010063370575155181</v>
       </c>
       <c r="K22">
-        <v>0.9243346312787118</v>
+        <v>2.496875685604938</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-0.8109391968028881</v>
+        <v>-2.483438226387894e-5</v>
       </c>
       <c r="J23">
-        <v>-0.7215023031206214</v>
+        <v>-2.4246841632386526e-5</v>
       </c>
       <c r="K23">
-        <v>1.880487325032311</v>
+        <v>2.1426796906293815</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-0.12616919396531512</v>
+        <v>-2.3232887539593537e-5</v>
       </c>
       <c r="J24">
-        <v>-0.11572962640644364</v>
+        <v>-2.2939890692827458e-5</v>
       </c>
       <c r="K24">
-        <v>2.893274314464078</v>
+        <v>2.1241981228400015</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-0.00012747538316918542</v>
+        <v>-1.3101305783628543e-5</v>
       </c>
       <c r="J25">
-        <v>-0.00015882624678110392</v>
+        <v>-1.2753305212769342e-5</v>
       </c>
       <c r="K25">
-        <v>2.59871259656187</v>
+        <v>1.9888845995473186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-6.586079829234824e-5</v>
+        <v>-6.96950786301954e-6</v>
       </c>
       <c r="J26">
-        <v>-6.506159310966236e-5</v>
+        <v>-7.458392241675171e-6</v>
       </c>
       <c r="K26">
-        <v>2.360067186993457</v>
+        <v>1.8990329822485565</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-2.388675004801662e-5</v>
+        <v>-6.10860712526878e-6</v>
       </c>
       <c r="J27">
-        <v>-2.4104051480969622e-5</v>
+        <v>-6.651909198514366e-6</v>
       </c>
       <c r="K27">
-        <v>2.1545835029914664</v>
+        <v>1.8765180608123226</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-1.853496577622304e-5</v>
+        <v>-6.478266290613602e-6</v>
       </c>
       <c r="J28">
-        <v>-1.869879593271723e-5</v>
+        <v>-6.264881041535078e-6</v>
       </c>
       <c r="K28">
-        <v>2.0986621549830016</v>
+        <v>1.8354724780089136</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-1.1820284375187329e-5</v>
+        <v>-5.106220453446894e-6</v>
       </c>
       <c r="J29">
-        <v>-1.1793736243075266e-5</v>
+        <v>-5.385821546817978e-6</v>
       </c>
       <c r="K29">
-        <v>1.992796683586781</v>
+        <v>1.8283787327980885</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-9.436412665942896e-6</v>
+        <v>-3.3343825677768374e-6</v>
       </c>
       <c r="J30">
-        <v>-9.505014678552339e-6</v>
+        <v>-3.5888652388049028e-6</v>
       </c>
       <c r="K30">
-        <v>1.9472498962159301</v>
+        <v>1.742631648355457</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-7.4499893801667035e-6</v>
+        <v>-3.3612039052952776e-6</v>
       </c>
       <c r="J31">
-        <v>-7.577592116474383e-6</v>
+        <v>-3.4275457143720294e-6</v>
       </c>
       <c r="K31">
-        <v>1.8988528960893563</v>
+        <v>1.7187846435968919</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-6.18096142704368e-6</v>
+        <v>-3.0930001361795692e-6</v>
       </c>
       <c r="J32">
-        <v>-6.152444344701105e-6</v>
+        <v>-3.097459155820593e-6</v>
       </c>
       <c r="K32">
-        <v>1.8472037915653727</v>
+        <v>1.6921604483944392</v>
       </c>
     </row>
   </sheetData>
